--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -166,10 +172,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -178,13 +197,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,121 +215,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -322,20 +227,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,147 +521,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>authorName</t>
   </si>
@@ -227,18 +227,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,44 +527,45 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
+    <col min="2" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -578,19 +582,19 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
         <v>1992</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="9">
         <v>2012</v>
       </c>
     </row>
